--- a/public/exports/activites.xlsx
+++ b/public/exports/activites.xlsx
@@ -127,7 +127,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3181350" cy="2381250"/>
+    <xdr:ext cx="2381250" cy="2381250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="" descr=""/>
